--- a/minmetals/工作记录/2024年11月工时确认单.xlsx
+++ b/minmetals/工作记录/2024年11月工时确认单.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t xml:space="preserve">赛迪信息工时申报表</t>
   </si>
@@ -50,6 +50,44 @@
   </si>
   <si>
     <t xml:space="preserve">备注</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">1. 跟进五矿矿业待办集成方案确定
+2. 在统一集成平台服务注册</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">慧点接口API</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 统一集成平台服务注册管理公共URI问题反馈和跟进
+2. 完成 doris 全部 ODS 表结构整理交给陈启义</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. python开发 MYSQL DES 数据库解密模块
+2. 解决司法大数据API调用次数耗尽问题</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 完成 MYSQL DES 数据库解密模块
+2. 党建数据建模评审会</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. MYSQL DES 解密 python 模块性能优化
+2. 人力资源数据建模文档</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -70,10 +108,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="yyyy\年m\月d&quot;日　&quot;dddd, "/>
+    <numFmt numFmtId="165" formatCode="yyyy\年m\月d&quot;日　&quot;dddd&quot;, &quot;"/>
     <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,6 +179,12 @@
       <name val="Arial Unicode MS"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -224,7 +268,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -277,59 +321,67 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -345,7 +397,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -610,7 +662,7 @@
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.67578125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -666,14 +718,16 @@
       </c>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="11" t="n">
         <v>1</v>
       </c>
       <c r="C7" s="12" t="n">
         <v>45597</v>
       </c>
-      <c r="D7" s="13"/>
+      <c r="D7" s="13" t="s">
+        <v>10</v>
+      </c>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
     </row>
@@ -701,47 +755,55 @@
       <c r="E9" s="19"/>
       <c r="F9" s="19"/>
     </row>
-    <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="11" t="n">
         <v>4</v>
       </c>
       <c r="C10" s="12" t="n">
         <v>45600</v>
       </c>
-      <c r="D10" s="13"/>
+      <c r="D10" s="13" t="s">
+        <v>11</v>
+      </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
     </row>
-    <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="11" t="n">
         <v>5</v>
       </c>
       <c r="C11" s="12" t="n">
         <v>45601</v>
       </c>
-      <c r="D11" s="13"/>
+      <c r="D11" s="21" t="s">
+        <v>12</v>
+      </c>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
     </row>
-    <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="11" t="n">
         <v>6</v>
       </c>
       <c r="C12" s="12" t="n">
         <v>45602</v>
       </c>
-      <c r="D12" s="13"/>
+      <c r="D12" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
     </row>
-    <row r="13" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="11" t="n">
         <v>7</v>
       </c>
       <c r="C13" s="12" t="n">
         <v>45603</v>
       </c>
-      <c r="D13" s="13"/>
+      <c r="D13" s="13" t="s">
+        <v>14</v>
+      </c>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
     </row>
@@ -752,7 +814,7 @@
       <c r="C14" s="12" t="n">
         <v>45604</v>
       </c>
-      <c r="D14" s="21"/>
+      <c r="D14" s="22"/>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
     </row>
@@ -764,7 +826,7 @@
       <c r="C15" s="17" t="n">
         <v>45605</v>
       </c>
-      <c r="D15" s="22"/>
+      <c r="D15" s="23"/>
       <c r="E15" s="19"/>
       <c r="F15" s="19"/>
     </row>
@@ -776,7 +838,7 @@
       <c r="C16" s="17" t="n">
         <v>45606</v>
       </c>
-      <c r="D16" s="23"/>
+      <c r="D16" s="24"/>
       <c r="E16" s="19"/>
       <c r="F16" s="19"/>
     </row>
@@ -787,7 +849,7 @@
       <c r="C17" s="12" t="n">
         <v>45607</v>
       </c>
-      <c r="D17" s="21"/>
+      <c r="D17" s="22"/>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
     </row>
@@ -798,7 +860,7 @@
       <c r="C18" s="12" t="n">
         <v>45608</v>
       </c>
-      <c r="D18" s="21"/>
+      <c r="D18" s="22"/>
       <c r="E18" s="14"/>
       <c r="F18" s="14"/>
     </row>
@@ -809,7 +871,7 @@
       <c r="C19" s="12" t="n">
         <v>45609</v>
       </c>
-      <c r="D19" s="13"/>
+      <c r="D19" s="25"/>
       <c r="E19" s="14"/>
       <c r="F19" s="14"/>
     </row>
@@ -820,9 +882,9 @@
       <c r="C20" s="12" t="n">
         <v>45610</v>
       </c>
-      <c r="D20" s="21"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
     </row>
     <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="11" t="n">
@@ -831,7 +893,7 @@
       <c r="C21" s="12" t="n">
         <v>45611</v>
       </c>
-      <c r="D21" s="21"/>
+      <c r="D21" s="22"/>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
     </row>
@@ -843,7 +905,7 @@
       <c r="C22" s="17" t="n">
         <v>45612</v>
       </c>
-      <c r="D22" s="23"/>
+      <c r="D22" s="24"/>
       <c r="E22" s="19"/>
       <c r="F22" s="19"/>
     </row>
@@ -855,7 +917,7 @@
       <c r="C23" s="17" t="n">
         <v>45613</v>
       </c>
-      <c r="D23" s="23"/>
+      <c r="D23" s="24"/>
       <c r="E23" s="19"/>
       <c r="F23" s="19"/>
     </row>
@@ -866,9 +928,9 @@
       <c r="C24" s="12" t="n">
         <v>45614</v>
       </c>
-      <c r="D24" s="21"/>
+      <c r="D24" s="22"/>
       <c r="E24" s="14" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F24" s="14"/>
     </row>
@@ -879,7 +941,7 @@
       <c r="C25" s="12" t="n">
         <v>45615</v>
       </c>
-      <c r="D25" s="13"/>
+      <c r="D25" s="25"/>
       <c r="E25" s="14"/>
       <c r="F25" s="14"/>
     </row>
@@ -890,9 +952,9 @@
       <c r="C26" s="12" t="n">
         <v>45616</v>
       </c>
-      <c r="D26" s="13"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
     </row>
     <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="11" t="n">
@@ -901,7 +963,7 @@
       <c r="C27" s="12" t="n">
         <v>45617</v>
       </c>
-      <c r="D27" s="25"/>
+      <c r="D27" s="27"/>
       <c r="E27" s="14"/>
       <c r="F27" s="14"/>
     </row>
@@ -912,7 +974,7 @@
       <c r="C28" s="12" t="n">
         <v>45618</v>
       </c>
-      <c r="D28" s="21"/>
+      <c r="D28" s="22"/>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
     </row>
@@ -924,7 +986,7 @@
       <c r="C29" s="17" t="n">
         <v>45619</v>
       </c>
-      <c r="D29" s="23"/>
+      <c r="D29" s="24"/>
       <c r="E29" s="19"/>
       <c r="F29" s="19"/>
     </row>
@@ -936,7 +998,7 @@
       <c r="C30" s="17" t="n">
         <v>45620</v>
       </c>
-      <c r="D30" s="26"/>
+      <c r="D30" s="28"/>
       <c r="E30" s="19"/>
       <c r="F30" s="19"/>
     </row>
@@ -947,7 +1009,7 @@
       <c r="C31" s="12" t="n">
         <v>45621</v>
       </c>
-      <c r="D31" s="27"/>
+      <c r="D31" s="29"/>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
     </row>
@@ -958,7 +1020,7 @@
       <c r="C32" s="12" t="n">
         <v>45622</v>
       </c>
-      <c r="D32" s="13"/>
+      <c r="D32" s="25"/>
       <c r="E32" s="14"/>
       <c r="F32" s="14"/>
     </row>
@@ -969,7 +1031,7 @@
       <c r="C33" s="12" t="n">
         <v>45623</v>
       </c>
-      <c r="D33" s="13"/>
+      <c r="D33" s="25"/>
       <c r="E33" s="14"/>
       <c r="F33" s="14"/>
     </row>
@@ -980,9 +1042,9 @@
       <c r="C34" s="12" t="n">
         <v>45624</v>
       </c>
-      <c r="D34" s="21"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
     </row>
     <row r="35" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="11" t="n">
@@ -991,9 +1053,9 @@
       <c r="C35" s="12" t="n">
         <v>45625</v>
       </c>
-      <c r="D35" s="21"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
     </row>
     <row r="36" s="20" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="16" t="n">
@@ -1002,28 +1064,28 @@
       <c r="C36" s="17" t="n">
         <v>45626</v>
       </c>
-      <c r="D36" s="23"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
-    </row>
-    <row r="37" s="29" customFormat="true" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B37" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C37" s="30"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="31"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+    </row>
+    <row r="37" s="31" customFormat="true" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B37" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" s="32"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="33"/>
     </row>
     <row r="38" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="39" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D39" s="32" t="s">
-        <v>12</v>
+      <c r="D39" s="34" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D40" s="32" t="s">
-        <v>13</v>
+      <c r="D40" s="34" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/minmetals/工作记录/2024年11月工时确认单.xlsx
+++ b/minmetals/工作记录/2024年11月工时确认单.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t xml:space="preserve">赛迪信息工时申报表</t>
   </si>
@@ -69,6 +69,7 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">慧点接口API</t>
     </r>
@@ -90,7 +91,50 @@
 2. 人力资源数据建模文档</t>
   </si>
   <si>
+    <t xml:space="preserve">人力资源ADS模型设计</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 人力资源ADS模型设计
+2. 司法大数据统计汇总</t>
+  </si>
+  <si>
+    <t xml:space="preserve">人力资源ODS、DWD模型设计</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 人力资源数据建模内部评审会
+2. 案件系统配合查数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 人力资源建模按评审意见修改
+2. 制定模块分工与开发计划</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 人力资源建模按评审意见修改
+2. 案件系统配合查数</t>
+  </si>
+  <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 采购管理数据建模交接（李梦雷）
+2. 采购管理数据建模文档整理</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 人力资源管理数据建模文档修改
+2. 人力资源建ADS表、填入模拟数据。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">人力资源建模文档修正字段命名和主数据一致</t>
+  </si>
+  <si>
+    <t xml:space="preserve">完成薪酬效能数据流水线开发</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 人力资源建模文档评审
+2. 干部管理流水线开发</t>
+  </si>
+  <si>
+    <t xml:space="preserve">财务数据接入培训</t>
   </si>
   <si>
     <t xml:space="preserve">合计</t>
@@ -185,6 +229,7 @@
       <color theme="1"/>
       <name val="等线"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -198,7 +243,6 @@
       <color theme="1"/>
       <name val="等线"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -361,7 +405,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -369,19 +413,19 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="166" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -662,7 +706,7 @@
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
+      <selection pane="topLeft" activeCell="D34" activeCellId="0" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.67578125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -814,7 +858,9 @@
       <c r="C14" s="12" t="n">
         <v>45604</v>
       </c>
-      <c r="D14" s="22"/>
+      <c r="D14" s="22" t="s">
+        <v>15</v>
+      </c>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
     </row>
@@ -849,18 +895,22 @@
       <c r="C17" s="12" t="n">
         <v>45607</v>
       </c>
-      <c r="D17" s="22"/>
+      <c r="D17" s="25" t="s">
+        <v>15</v>
+      </c>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
     </row>
-    <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="11" t="n">
         <v>12</v>
       </c>
       <c r="C18" s="12" t="n">
         <v>45608</v>
       </c>
-      <c r="D18" s="22"/>
+      <c r="D18" s="26" t="s">
+        <v>16</v>
+      </c>
       <c r="E18" s="14"/>
       <c r="F18" s="14"/>
     </row>
@@ -871,29 +921,35 @@
       <c r="C19" s="12" t="n">
         <v>45609</v>
       </c>
-      <c r="D19" s="25"/>
+      <c r="D19" s="25" t="s">
+        <v>17</v>
+      </c>
       <c r="E19" s="14"/>
       <c r="F19" s="14"/>
     </row>
-    <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="11" t="n">
         <v>14</v>
       </c>
       <c r="C20" s="12" t="n">
         <v>45610</v>
       </c>
-      <c r="D20" s="22"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-    </row>
-    <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D20" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+    </row>
+    <row r="21" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="11" t="n">
         <v>15</v>
       </c>
       <c r="C21" s="12" t="n">
         <v>45611</v>
       </c>
-      <c r="D21" s="22"/>
+      <c r="D21" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
     </row>
@@ -921,49 +977,57 @@
       <c r="E23" s="19"/>
       <c r="F23" s="19"/>
     </row>
-    <row r="24" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="11" t="n">
         <v>18</v>
       </c>
       <c r="C24" s="12" t="n">
         <v>45614</v>
       </c>
-      <c r="D24" s="22"/>
+      <c r="D24" s="13" t="s">
+        <v>20</v>
+      </c>
       <c r="E24" s="14" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F24" s="14"/>
     </row>
-    <row r="25" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="11" t="n">
         <v>19</v>
       </c>
       <c r="C25" s="12" t="n">
         <v>45615</v>
       </c>
-      <c r="D25" s="25"/>
+      <c r="D25" s="13" t="s">
+        <v>20</v>
+      </c>
       <c r="E25" s="14"/>
       <c r="F25" s="14"/>
     </row>
-    <row r="26" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="11" t="n">
         <v>20</v>
       </c>
       <c r="C26" s="12" t="n">
         <v>45616</v>
       </c>
-      <c r="D26" s="25"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-    </row>
-    <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D26" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+    </row>
+    <row r="27" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="11" t="n">
         <v>21</v>
       </c>
       <c r="C27" s="12" t="n">
         <v>45617</v>
       </c>
-      <c r="D27" s="27"/>
+      <c r="D27" s="21" t="s">
+        <v>23</v>
+      </c>
       <c r="E27" s="14"/>
       <c r="F27" s="14"/>
     </row>
@@ -974,7 +1038,9 @@
       <c r="C28" s="12" t="n">
         <v>45618</v>
       </c>
-      <c r="D28" s="22"/>
+      <c r="D28" s="22" t="s">
+        <v>24</v>
+      </c>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
     </row>
@@ -1009,18 +1075,22 @@
       <c r="C31" s="12" t="n">
         <v>45621</v>
       </c>
-      <c r="D31" s="29"/>
+      <c r="D31" s="29" t="s">
+        <v>25</v>
+      </c>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
     </row>
-    <row r="32" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="11" t="n">
         <v>26</v>
       </c>
       <c r="C32" s="12" t="n">
         <v>45622</v>
       </c>
-      <c r="D32" s="25"/>
+      <c r="D32" s="13" t="s">
+        <v>26</v>
+      </c>
       <c r="E32" s="14"/>
       <c r="F32" s="14"/>
     </row>
@@ -1031,7 +1101,9 @@
       <c r="C33" s="12" t="n">
         <v>45623</v>
       </c>
-      <c r="D33" s="25"/>
+      <c r="D33" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="E33" s="14"/>
       <c r="F33" s="14"/>
     </row>
@@ -1043,8 +1115,8 @@
         <v>45624</v>
       </c>
       <c r="D34" s="22"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
     </row>
     <row r="35" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="11" t="n">
@@ -1054,8 +1126,8 @@
         <v>45625</v>
       </c>
       <c r="D35" s="22"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
     </row>
     <row r="36" s="20" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="16" t="n">
@@ -1070,7 +1142,7 @@
     </row>
     <row r="37" s="31" customFormat="true" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B37" s="32" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C37" s="32"/>
       <c r="D37" s="33"/>
@@ -1080,12 +1152,12 @@
     <row r="38" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="39" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D39" s="34" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D40" s="34" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/minmetals/工作记录/2024年11月工时确认单.xlsx
+++ b/minmetals/工作记录/2024年11月工时确认单.xlsx
@@ -131,10 +131,29 @@
   </si>
   <si>
     <t xml:space="preserve">1. 人力资源建模文档评审
-2. 干部管理流水线开发</t>
-  </si>
-  <si>
-    <t xml:space="preserve">财务数据接入培训</t>
+2. 薪酬效能流水线改用薪酬效能源数据库</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">1. 财务数据接入培训
+2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">干部管理流水线开发</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">合计</t>
@@ -312,7 +331,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -413,12 +432,8 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -705,8 +720,8 @@
   </sheetPr>
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D34" activeCellId="0" sqref="D34"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D33" activeCellId="0" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.67578125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -908,7 +923,7 @@
       <c r="C18" s="12" t="n">
         <v>45608</v>
       </c>
-      <c r="D18" s="26" t="s">
+      <c r="D18" s="21" t="s">
         <v>16</v>
       </c>
       <c r="E18" s="14"/>
@@ -937,8 +952,8 @@
       <c r="D20" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
     </row>
     <row r="21" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="11" t="n">
@@ -1015,8 +1030,8 @@
       <c r="D26" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
     </row>
     <row r="27" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="11" t="n">
@@ -1064,7 +1079,7 @@
       <c r="C30" s="17" t="n">
         <v>45620</v>
       </c>
-      <c r="D30" s="28"/>
+      <c r="D30" s="27"/>
       <c r="E30" s="19"/>
       <c r="F30" s="19"/>
     </row>
@@ -1075,7 +1090,7 @@
       <c r="C31" s="12" t="n">
         <v>45621</v>
       </c>
-      <c r="D31" s="29" t="s">
+      <c r="D31" s="28" t="s">
         <v>25</v>
       </c>
       <c r="E31" s="9"/>
@@ -1094,7 +1109,7 @@
       <c r="E32" s="14"/>
       <c r="F32" s="14"/>
     </row>
-    <row r="33" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="11" t="n">
         <v>27</v>
       </c>
@@ -1115,8 +1130,8 @@
         <v>45624</v>
       </c>
       <c r="D34" s="22"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
     </row>
     <row r="35" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="11" t="n">
@@ -1126,8 +1141,8 @@
         <v>45625</v>
       </c>
       <c r="D35" s="22"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
     </row>
     <row r="36" s="20" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="16" t="n">
@@ -1137,26 +1152,26 @@
         <v>45626</v>
       </c>
       <c r="D36" s="24"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-    </row>
-    <row r="37" s="31" customFormat="true" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B37" s="32" t="s">
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+    </row>
+    <row r="37" s="30" customFormat="true" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B37" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="C37" s="32"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="33"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32"/>
     </row>
     <row r="38" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="39" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D39" s="34" t="s">
+      <c r="D39" s="33" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D40" s="34" t="s">
+      <c r="D40" s="33" t="s">
         <v>30</v>
       </c>
     </row>

--- a/minmetals/工作记录/2024年11月工时确认单.xlsx
+++ b/minmetals/工作记录/2024年11月工时确认单.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t xml:space="preserve">赛迪信息工时申报表</t>
   </si>
@@ -151,9 +151,18 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">干部管理流水线开发</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 立案案由名称统计
+2. 干部管理小海豚流水线梳理</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 干部管理数据建模评审
+2. 干部管理数据建模按评审意见修改</t>
   </si>
   <si>
     <t xml:space="preserve">合计</t>
@@ -174,7 +183,7 @@
     <numFmt numFmtId="165" formatCode="yyyy\年m\月d&quot;日　&quot;dddd&quot;, &quot;"/>
     <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -258,12 +267,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="0"/>
-    </font>
-    <font>
       <b val="true"/>
       <sz val="11"/>
       <color theme="1"/>
@@ -456,7 +459,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -721,7 +724,7 @@
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D33" activeCellId="0" sqref="D33"/>
+      <selection pane="topLeft" activeCell="D34" activeCellId="0" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.67578125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1122,25 +1125,29 @@
       <c r="E33" s="14"/>
       <c r="F33" s="14"/>
     </row>
-    <row r="34" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="11" t="n">
         <v>28</v>
       </c>
       <c r="C34" s="12" t="n">
         <v>45624</v>
       </c>
-      <c r="D34" s="22"/>
+      <c r="D34" s="13" t="s">
+        <v>28</v>
+      </c>
       <c r="E34" s="26"/>
       <c r="F34" s="26"/>
     </row>
-    <row r="35" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="11" t="n">
         <v>29</v>
       </c>
       <c r="C35" s="12" t="n">
         <v>45625</v>
       </c>
-      <c r="D35" s="22"/>
+      <c r="D35" s="13" t="s">
+        <v>29</v>
+      </c>
       <c r="E35" s="26"/>
       <c r="F35" s="26"/>
     </row>
@@ -1157,7 +1164,7 @@
     </row>
     <row r="37" s="30" customFormat="true" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B37" s="31" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C37" s="31"/>
       <c r="D37" s="32"/>
@@ -1167,12 +1174,12 @@
     <row r="38" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="39" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D39" s="33" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D40" s="33" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
